--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/HCL Technologies Ltd/Pruned_Excel/Pruned_Cash-flow_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/HCL Technologies Ltd/Pruned_Excel/Pruned_Cash-flow_combined.xlsx
@@ -510,7 +510,7 @@
         <v>-493.71</v>
       </c>
       <c r="F2">
-        <v>-4.011764705882353</v>
+        <v>-4.01</v>
       </c>
       <c r="G2">
         <v>11.54</v>
@@ -539,7 +539,7 @@
         <v>-641.79</v>
       </c>
       <c r="F3">
-        <v>-4.011764705882353</v>
+        <v>-4.01</v>
       </c>
       <c r="G3">
         <v>-1.08</v>
@@ -626,7 +626,7 @@
         <v>-215.82</v>
       </c>
       <c r="F6">
-        <v>-4.011764705882353</v>
+        <v>-4.01</v>
       </c>
       <c r="G6">
         <v>678.95</v>
